--- a/file/NCCU-401-旅遊地點.xlsx
+++ b/file/NCCU-401-旅遊地點.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97575897-FB9B-6B4E-A231-EDB053312DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10E3DC-6285-D248-B875-0CEBD99ED901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="6620" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="-36020" yWindow="6620" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
